--- a/Design/DateTable/client_main_UI_info.xlsx
+++ b/Design/DateTable/client_main_UI_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF6A4A7-7EF9-49C0-BD0E-BAFF1A80C232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA3B42D-57D9-4B5B-A85D-9E3AB2B21F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="9630" yWindow="3225" windowWidth="21600" windowHeight="11355" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!main_UI" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,22 @@
   </si>
   <si>
     <t>ICON Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;정렬 순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,8 +378,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6A41F9F-5DCC-4BFD-8BFF-13DCEDAE87F6}" name="표1" displayName="표1" ref="A8:B10" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A8:B10" xr:uid="{F6A41F9F-5DCC-4BFD-8BFF-13DCEDAE87F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6A41F9F-5DCC-4BFD-8BFF-13DCEDAE87F6}" name="표1" displayName="표1" ref="A9:B11" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A9:B11" xr:uid="{F6A41F9F-5DCC-4BFD-8BFF-13DCEDAE87F6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{385428E1-39E0-4115-B84F-1D12223D90E3}" name="Active check" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{4BCED7B4-BB14-49BC-965C-03FF88866621}" name="상태" dataDxfId="0"/>
@@ -669,21 +685,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -691,16 +708,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -708,12 +728,15 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -725,10 +748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -754,49 +777,57 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
     </row>
